--- a/ログイン_単体テスト.xlsx
+++ b/ログイン_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5551A3CE-B371-4B89-B848-CB89171A3F8C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A491446-B98D-401D-97A2-424915FF4BED}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="243">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -3064,7 +3064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3084,9 +3084,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4906,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5012,8 +5009,12 @@
       <c r="F8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5046,8 +5047,12 @@
       <c r="F10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5080,8 +5085,12 @@
       <c r="F12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5114,8 +5123,12 @@
       <c r="F14" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5148,8 +5161,12 @@
       <c r="F16" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5166,7 +5183,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5182,12 +5199,16 @@
       <c r="F18" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5198,7 +5219,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5214,12 +5235,16 @@
       <c r="F20" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5246,8 +5271,12 @@
       <c r="F22" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5282,8 +5311,12 @@
       <c r="F24" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5329,8 +5362,12 @@
       <c r="F27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5364,7 +5401,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5467,8 +5504,12 @@
       <c r="F8" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5501,8 +5542,12 @@
       <c r="F10" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5535,8 +5580,12 @@
       <c r="F12" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5569,8 +5618,12 @@
       <c r="F14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/ログイン_単体テスト.xlsx
+++ b/ログイン_単体テスト.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A491446-B98D-401D-97A2-424915FF4BED}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{3994DAD9-86A0-4020-8B0D-FF548B2B8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894DE3A8-241B-4DB1-9A1B-24A9C3B9EE0C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
     <sheet name="TOPページ" sheetId="3" r:id="rId2"/>
-    <sheet name="アカウント削除完了画面" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="アカウント更新画面" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="アカウント更新確認画面" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="アカウント更新完了画面" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="エラー画面" sheetId="8" r:id="rId3"/>
+    <sheet name="アカウント削除完了画面" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="アカウント更新画面" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="アカウント更新確認画面" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="アカウント更新完了画面" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="257">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -2983,6 +2984,182 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー表示画面</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限でログインした際、「アカウント登録」でエラー表示されるか</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限でログインした際、「アカウント一覧」でエラー表示されるか</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限でログインした際、「アカウント削除」でエラー表示されるか</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限でログインした際、「アカウント更新」でエラー表示されるか</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アクセスする権限がありません」が表示</t>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「一般」権限のログイン</t>
+    <rPh sb="3" eb="5">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.regist.phpを入力</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.list.phpを入力</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.delete.phpを入力</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.update.phpを入力</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「トップへ戻る」がボタン形式で表示されているか</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「トップへ戻る」がボタン形式で表示</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.操作不可の画面に遷移</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3064,7 +3241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3084,6 +3261,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4903,7 +5083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -5400,7 +5580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -5649,6 +5829,296 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7CF9FE-4111-4870-AB5B-76D5A769913A}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -6009,7 +6479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
   <dimension ref="A1:I118"/>
   <sheetViews>
@@ -8184,7 +8654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BD4000-382C-4484-B03E-40C718A10235}">
   <dimension ref="A1:I62"/>
   <sheetViews>
@@ -9221,7 +9691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
   <dimension ref="A1:I23"/>
   <sheetViews>
